--- a/newMetadata/Steginoporella_magnifica_image_metadata_17Apr2023.xlsx
+++ b/newMetadata/Steginoporella_magnifica_image_metadata_17Apr2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/stegino_metadata/newMetadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F9A27-01C3-A341-B59C-EEBEE4774A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D40954-FC79-CF4C-839C-EA1463CE4DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="780" windowWidth="26040" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9006,15 +9006,9 @@
     <t>pictureNumber</t>
   </si>
   <si>
-    <t>000005i_F_1_15v_x35_BSE</t>
-  </si>
-  <si>
     <t>000005i_FL</t>
   </si>
   <si>
-    <t>000005i_F_2_15v_x30_BSE</t>
-  </si>
-  <si>
     <t>0000086_FL</t>
   </si>
   <si>
@@ -9409,6 +9403,12 @@
   </si>
   <si>
     <t>0000010_FL_2_15v_x30_BSE</t>
+  </si>
+  <si>
+    <t>000005i_FL_1_15v_x35_BSE</t>
+  </si>
+  <si>
+    <t>000005i_FL_2_15v_x30_BSE</t>
   </si>
 </sst>
 </file>
@@ -10261,8 +10261,8 @@
   <dimension ref="A1:O1891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F473" sqref="F473"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11031,13 +11031,13 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
@@ -11066,13 +11066,13 @@
         <v>8</v>
       </c>
       <c r="H23" t="s">
+        <v>3120</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
         <v>3122</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3124</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
@@ -13691,13 +13691,13 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>2990</v>
+        <v>3123</v>
       </c>
       <c r="K98" t="s">
         <v>10</v>
@@ -13726,13 +13726,13 @@
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>2992</v>
+        <v>3124</v>
       </c>
       <c r="K99" t="s">
         <v>10</v>
@@ -15686,13 +15686,13 @@
         <v>8</v>
       </c>
       <c r="H155" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="K155" t="s">
         <v>10</v>
@@ -15721,13 +15721,13 @@
         <v>8</v>
       </c>
       <c r="H156" t="s">
+        <v>2991</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
         <v>2993</v>
-      </c>
-      <c r="I156">
-        <v>2</v>
-      </c>
-      <c r="J156" t="s">
-        <v>2995</v>
       </c>
       <c r="K156" t="s">
         <v>10</v>
@@ -26676,13 +26676,13 @@
         <v>8</v>
       </c>
       <c r="H469" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="I469">
         <v>1</v>
       </c>
       <c r="J469" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="K469" t="s">
         <v>10</v>
@@ -26711,13 +26711,13 @@
         <v>8</v>
       </c>
       <c r="H470" t="s">
+        <v>3116</v>
+      </c>
+      <c r="I470">
+        <v>2</v>
+      </c>
+      <c r="J470" t="s">
         <v>3118</v>
-      </c>
-      <c r="I470">
-        <v>2</v>
-      </c>
-      <c r="J470" t="s">
-        <v>3120</v>
       </c>
       <c r="K470" t="s">
         <v>10</v>
@@ -26746,13 +26746,13 @@
         <v>8</v>
       </c>
       <c r="H471" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="I471">
         <v>3</v>
       </c>
       <c r="J471" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="K471" t="s">
         <v>10</v>
@@ -30666,13 +30666,13 @@
         <v>8</v>
       </c>
       <c r="H583" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="I583">
         <v>1</v>
       </c>
       <c r="J583" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="K583" t="s">
         <v>10</v>
@@ -30701,13 +30701,13 @@
         <v>8</v>
       </c>
       <c r="H584" t="s">
+        <v>2994</v>
+      </c>
+      <c r="I584">
+        <v>2</v>
+      </c>
+      <c r="J584" t="s">
         <v>2996</v>
-      </c>
-      <c r="I584">
-        <v>2</v>
-      </c>
-      <c r="J584" t="s">
-        <v>2998</v>
       </c>
       <c r="K584" t="s">
         <v>10</v>
@@ -30736,13 +30736,13 @@
         <v>8</v>
       </c>
       <c r="H585" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="I585">
         <v>1</v>
       </c>
       <c r="J585" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="K585" t="s">
         <v>10</v>
@@ -30771,13 +30771,13 @@
         <v>8</v>
       </c>
       <c r="H586" t="s">
+        <v>2997</v>
+      </c>
+      <c r="I586">
+        <v>2</v>
+      </c>
+      <c r="J586" t="s">
         <v>2999</v>
-      </c>
-      <c r="I586">
-        <v>2</v>
-      </c>
-      <c r="J586" t="s">
-        <v>3001</v>
       </c>
       <c r="K586" t="s">
         <v>10</v>
@@ -30806,13 +30806,13 @@
         <v>8</v>
       </c>
       <c r="H587" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="I587">
         <v>3</v>
       </c>
       <c r="J587" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="K587" t="s">
         <v>10</v>
@@ -32591,13 +32591,13 @@
         <v>8</v>
       </c>
       <c r="H638" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="I638">
         <v>1</v>
       </c>
       <c r="J638" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="K638" t="s">
         <v>10</v>
@@ -32626,13 +32626,13 @@
         <v>8</v>
       </c>
       <c r="H639" t="s">
+        <v>3001</v>
+      </c>
+      <c r="I639">
+        <v>2</v>
+      </c>
+      <c r="J639" t="s">
         <v>3003</v>
-      </c>
-      <c r="I639">
-        <v>2</v>
-      </c>
-      <c r="J639" t="s">
-        <v>3005</v>
       </c>
       <c r="K639" t="s">
         <v>10</v>
@@ -32731,13 +32731,13 @@
         <v>8</v>
       </c>
       <c r="H642" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="I642">
         <v>1</v>
       </c>
       <c r="J642" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="K642" t="s">
         <v>10</v>
@@ -32766,13 +32766,13 @@
         <v>8</v>
       </c>
       <c r="H643" t="s">
+        <v>3004</v>
+      </c>
+      <c r="I643">
+        <v>1</v>
+      </c>
+      <c r="J643" t="s">
         <v>3006</v>
-      </c>
-      <c r="I643">
-        <v>1</v>
-      </c>
-      <c r="J643" t="s">
-        <v>3008</v>
       </c>
       <c r="K643" t="s">
         <v>10</v>
@@ -32801,13 +32801,13 @@
         <v>8</v>
       </c>
       <c r="H644" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="I644">
         <v>2</v>
       </c>
       <c r="J644" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="K644" t="s">
         <v>10</v>
@@ -33466,13 +33466,13 @@
         <v>8</v>
       </c>
       <c r="H663" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="I663">
         <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="K663" t="s">
         <v>10</v>
@@ -33501,13 +33501,13 @@
         <v>8</v>
       </c>
       <c r="H664" t="s">
+        <v>3008</v>
+      </c>
+      <c r="I664">
+        <v>2</v>
+      </c>
+      <c r="J664" t="s">
         <v>3010</v>
-      </c>
-      <c r="I664">
-        <v>2</v>
-      </c>
-      <c r="J664" t="s">
-        <v>3012</v>
       </c>
       <c r="K664" t="s">
         <v>10</v>
@@ -33676,13 +33676,13 @@
         <v>8</v>
       </c>
       <c r="H669" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="I669">
         <v>1</v>
       </c>
       <c r="J669" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="K669" t="s">
         <v>10</v>
@@ -33851,13 +33851,13 @@
         <v>8</v>
       </c>
       <c r="H674" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="I674">
         <v>1</v>
       </c>
       <c r="J674" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="K674" t="s">
         <v>10</v>
@@ -33886,13 +33886,13 @@
         <v>8</v>
       </c>
       <c r="H675" t="s">
+        <v>3013</v>
+      </c>
+      <c r="I675">
+        <v>2</v>
+      </c>
+      <c r="J675" t="s">
         <v>3015</v>
-      </c>
-      <c r="I675">
-        <v>2</v>
-      </c>
-      <c r="J675" t="s">
-        <v>3017</v>
       </c>
       <c r="K675" t="s">
         <v>10</v>
@@ -34201,13 +34201,13 @@
         <v>8</v>
       </c>
       <c r="H684" t="s">
+        <v>3016</v>
+      </c>
+      <c r="I684">
+        <v>1</v>
+      </c>
+      <c r="J684" t="s">
         <v>3018</v>
-      </c>
-      <c r="I684">
-        <v>1</v>
-      </c>
-      <c r="J684" t="s">
-        <v>3020</v>
       </c>
       <c r="K684" t="s">
         <v>10</v>
@@ -34236,13 +34236,13 @@
         <v>8</v>
       </c>
       <c r="H685" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="I685">
         <v>2</v>
       </c>
       <c r="J685" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="K685" t="s">
         <v>10</v>
@@ -34341,13 +34341,13 @@
         <v>8</v>
       </c>
       <c r="H688" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="I688">
         <v>1</v>
       </c>
       <c r="J688" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="K688" t="s">
         <v>10</v>
@@ -34376,13 +34376,13 @@
         <v>8</v>
       </c>
       <c r="H689" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="I689">
         <v>2</v>
       </c>
       <c r="J689" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="K689" t="s">
         <v>10</v>
@@ -34411,13 +34411,13 @@
         <v>8</v>
       </c>
       <c r="H690" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="I690">
         <v>1</v>
       </c>
       <c r="J690" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="K690" t="s">
         <v>10</v>
@@ -34446,13 +34446,13 @@
         <v>8</v>
       </c>
       <c r="H691" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="I691">
         <v>2</v>
       </c>
       <c r="J691" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="K691" t="s">
         <v>10</v>
@@ -34551,13 +34551,13 @@
         <v>8</v>
       </c>
       <c r="H694" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="I694">
         <v>1</v>
       </c>
       <c r="J694" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="K694" t="s">
         <v>10</v>
@@ -34586,13 +34586,13 @@
         <v>8</v>
       </c>
       <c r="H695" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="I695">
         <v>2</v>
       </c>
       <c r="J695" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="K695" t="s">
         <v>10</v>
@@ -34621,13 +34621,13 @@
         <v>8</v>
       </c>
       <c r="H696" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="I696">
         <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="K696" t="s">
         <v>10</v>
@@ -35146,13 +35146,13 @@
         <v>8</v>
       </c>
       <c r="H711" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="I711">
         <v>1</v>
       </c>
       <c r="J711" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="K711" t="s">
         <v>10</v>
@@ -35531,13 +35531,13 @@
         <v>8</v>
       </c>
       <c r="H722" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="I722">
         <v>1</v>
       </c>
       <c r="J722" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="K722" t="s">
         <v>10</v>
@@ -35566,13 +35566,13 @@
         <v>8</v>
       </c>
       <c r="H723" t="s">
+        <v>3032</v>
+      </c>
+      <c r="I723">
+        <v>2</v>
+      </c>
+      <c r="J723" t="s">
         <v>3034</v>
-      </c>
-      <c r="I723">
-        <v>2</v>
-      </c>
-      <c r="J723" t="s">
-        <v>3036</v>
       </c>
       <c r="K723" t="s">
         <v>10</v>
@@ -36756,13 +36756,13 @@
         <v>8</v>
       </c>
       <c r="H757" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="I757">
         <v>1</v>
       </c>
       <c r="J757" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="K757" t="s">
         <v>10</v>
@@ -36791,13 +36791,13 @@
         <v>8</v>
       </c>
       <c r="H758" t="s">
+        <v>3035</v>
+      </c>
+      <c r="I758">
+        <v>2</v>
+      </c>
+      <c r="J758" t="s">
         <v>3037</v>
-      </c>
-      <c r="I758">
-        <v>2</v>
-      </c>
-      <c r="J758" t="s">
-        <v>3039</v>
       </c>
       <c r="K758" t="s">
         <v>10</v>
@@ -37421,13 +37421,13 @@
         <v>119</v>
       </c>
       <c r="H776" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="I776">
         <v>1</v>
       </c>
       <c r="J776" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="K776" t="s">
         <v>10</v>
@@ -37456,13 +37456,13 @@
         <v>119</v>
       </c>
       <c r="H777" t="s">
+        <v>3038</v>
+      </c>
+      <c r="I777">
+        <v>2</v>
+      </c>
+      <c r="J777" t="s">
         <v>3040</v>
-      </c>
-      <c r="I777">
-        <v>2</v>
-      </c>
-      <c r="J777" t="s">
-        <v>3042</v>
       </c>
       <c r="K777" t="s">
         <v>10</v>
@@ -38401,13 +38401,13 @@
         <v>119</v>
       </c>
       <c r="H804" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="I804">
         <v>1</v>
       </c>
       <c r="J804" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="K804" t="s">
         <v>10</v>
@@ -38436,13 +38436,13 @@
         <v>119</v>
       </c>
       <c r="H805" t="s">
+        <v>3041</v>
+      </c>
+      <c r="I805">
+        <v>2</v>
+      </c>
+      <c r="J805" t="s">
         <v>3043</v>
-      </c>
-      <c r="I805">
-        <v>2</v>
-      </c>
-      <c r="J805" t="s">
-        <v>3045</v>
       </c>
       <c r="K805" t="s">
         <v>10</v>
@@ -38471,13 +38471,13 @@
         <v>119</v>
       </c>
       <c r="H806" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="I806">
         <v>3</v>
       </c>
       <c r="J806" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="K806" t="s">
         <v>10</v>
@@ -39731,13 +39731,13 @@
         <v>119</v>
       </c>
       <c r="H842" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="I842">
         <v>1</v>
       </c>
       <c r="J842" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="K842" t="s">
         <v>10</v>
@@ -39766,13 +39766,13 @@
         <v>119</v>
       </c>
       <c r="H843" t="s">
+        <v>3045</v>
+      </c>
+      <c r="I843">
+        <v>2</v>
+      </c>
+      <c r="J843" t="s">
         <v>3047</v>
-      </c>
-      <c r="I843">
-        <v>2</v>
-      </c>
-      <c r="J843" t="s">
-        <v>3049</v>
       </c>
       <c r="K843" t="s">
         <v>10</v>
@@ -39801,13 +39801,13 @@
         <v>119</v>
       </c>
       <c r="H844" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="I844">
         <v>3</v>
       </c>
       <c r="J844" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="K844" t="s">
         <v>10</v>
@@ -57761,13 +57761,13 @@
         <v>262</v>
       </c>
       <c r="H1357" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="I1357">
         <v>1</v>
       </c>
       <c r="J1357" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="K1357" t="s">
         <v>10</v>
@@ -57796,13 +57796,13 @@
         <v>262</v>
       </c>
       <c r="H1358" t="s">
+        <v>3049</v>
+      </c>
+      <c r="I1358">
+        <v>2</v>
+      </c>
+      <c r="J1358" t="s">
         <v>3051</v>
-      </c>
-      <c r="I1358">
-        <v>2</v>
-      </c>
-      <c r="J1358" t="s">
-        <v>3053</v>
       </c>
       <c r="K1358" t="s">
         <v>10</v>
@@ -58496,13 +58496,13 @@
         <v>262</v>
       </c>
       <c r="H1378" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="I1378">
         <v>1</v>
       </c>
       <c r="J1378" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="K1378" t="s">
         <v>10</v>
@@ -58531,13 +58531,13 @@
         <v>262</v>
       </c>
       <c r="H1379" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I1379">
+        <v>1</v>
+      </c>
+      <c r="J1379" t="s">
         <v>3054</v>
-      </c>
-      <c r="I1379">
-        <v>1</v>
-      </c>
-      <c r="J1379" t="s">
-        <v>3056</v>
       </c>
       <c r="K1379" t="s">
         <v>10</v>
@@ -58566,13 +58566,13 @@
         <v>262</v>
       </c>
       <c r="H1380" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="I1380">
         <v>2</v>
       </c>
       <c r="J1380" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="K1380" t="s">
         <v>10</v>
@@ -58601,13 +58601,13 @@
         <v>262</v>
       </c>
       <c r="H1381" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="I1381">
         <v>3</v>
       </c>
       <c r="J1381" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="K1381" t="s">
         <v>10</v>
@@ -59756,13 +59756,13 @@
         <v>262</v>
       </c>
       <c r="H1414" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="I1414">
         <v>1</v>
       </c>
       <c r="J1414" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="K1414" t="s">
         <v>10</v>
@@ -59791,13 +59791,13 @@
         <v>262</v>
       </c>
       <c r="H1415" t="s">
+        <v>3057</v>
+      </c>
+      <c r="I1415">
+        <v>2</v>
+      </c>
+      <c r="J1415" t="s">
         <v>3059</v>
-      </c>
-      <c r="I1415">
-        <v>2</v>
-      </c>
-      <c r="J1415" t="s">
-        <v>3061</v>
       </c>
       <c r="K1415" t="s">
         <v>10</v>
@@ -63711,13 +63711,13 @@
         <v>296</v>
       </c>
       <c r="H1527" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="I1527">
         <v>1</v>
       </c>
       <c r="J1527" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="K1527" t="s">
         <v>10</v>
@@ -63746,13 +63746,13 @@
         <v>296</v>
       </c>
       <c r="H1528" t="s">
+        <v>3060</v>
+      </c>
+      <c r="I1528">
+        <v>2</v>
+      </c>
+      <c r="J1528" t="s">
         <v>3062</v>
-      </c>
-      <c r="I1528">
-        <v>2</v>
-      </c>
-      <c r="J1528" t="s">
-        <v>3064</v>
       </c>
       <c r="K1528" t="s">
         <v>10</v>
@@ -64026,13 +64026,13 @@
         <v>296</v>
       </c>
       <c r="H1536" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="I1536">
         <v>1</v>
       </c>
       <c r="J1536" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="K1536" t="s">
         <v>10</v>
@@ -64061,13 +64061,13 @@
         <v>296</v>
       </c>
       <c r="H1537" t="s">
+        <v>3063</v>
+      </c>
+      <c r="I1537">
+        <v>2</v>
+      </c>
+      <c r="J1537" t="s">
         <v>3065</v>
-      </c>
-      <c r="I1537">
-        <v>2</v>
-      </c>
-      <c r="J1537" t="s">
-        <v>3067</v>
       </c>
       <c r="K1537" t="s">
         <v>10</v>
@@ -64306,13 +64306,13 @@
         <v>296</v>
       </c>
       <c r="H1544" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="I1544">
         <v>1</v>
       </c>
       <c r="J1544" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="K1544" t="s">
         <v>10</v>
@@ -64341,13 +64341,13 @@
         <v>296</v>
       </c>
       <c r="H1545" t="s">
+        <v>3066</v>
+      </c>
+      <c r="I1545">
+        <v>2</v>
+      </c>
+      <c r="J1545" t="s">
         <v>3068</v>
-      </c>
-      <c r="I1545">
-        <v>2</v>
-      </c>
-      <c r="J1545" t="s">
-        <v>3070</v>
       </c>
       <c r="K1545" t="s">
         <v>10</v>
@@ -64446,13 +64446,13 @@
         <v>296</v>
       </c>
       <c r="H1548" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="I1548">
         <v>1</v>
       </c>
       <c r="J1548" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="K1548" t="s">
         <v>10</v>
@@ -64481,13 +64481,13 @@
         <v>296</v>
       </c>
       <c r="H1549" t="s">
+        <v>3069</v>
+      </c>
+      <c r="I1549">
+        <v>2</v>
+      </c>
+      <c r="J1549" t="s">
         <v>3071</v>
-      </c>
-      <c r="I1549">
-        <v>2</v>
-      </c>
-      <c r="J1549" t="s">
-        <v>3073</v>
       </c>
       <c r="K1549" t="s">
         <v>10</v>
@@ -64516,13 +64516,13 @@
         <v>296</v>
       </c>
       <c r="H1550" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="I1550">
         <v>3</v>
       </c>
       <c r="J1550" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="K1550" t="s">
         <v>10</v>
@@ -64691,13 +64691,13 @@
         <v>296</v>
       </c>
       <c r="H1555" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="I1555">
         <v>1</v>
       </c>
       <c r="J1555" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="K1555" t="s">
         <v>10</v>
@@ -64726,13 +64726,13 @@
         <v>296</v>
       </c>
       <c r="H1556" t="s">
+        <v>3073</v>
+      </c>
+      <c r="I1556">
+        <v>2</v>
+      </c>
+      <c r="J1556" t="s">
         <v>3075</v>
-      </c>
-      <c r="I1556">
-        <v>2</v>
-      </c>
-      <c r="J1556" t="s">
-        <v>3077</v>
       </c>
       <c r="K1556" t="s">
         <v>10</v>
@@ -64831,13 +64831,13 @@
         <v>296</v>
       </c>
       <c r="H1559" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="I1559">
         <v>1</v>
       </c>
       <c r="J1559" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="K1559" t="s">
         <v>10</v>
@@ -64866,13 +64866,13 @@
         <v>296</v>
       </c>
       <c r="H1560" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="I1560">
         <v>2</v>
       </c>
       <c r="J1560" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="K1560" t="s">
         <v>10</v>
@@ -64971,13 +64971,13 @@
         <v>296</v>
       </c>
       <c r="H1563" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="I1563">
         <v>1</v>
       </c>
       <c r="J1563" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="K1563" t="s">
         <v>10</v>
@@ -65006,13 +65006,13 @@
         <v>296</v>
       </c>
       <c r="H1564" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="I1564">
         <v>2</v>
       </c>
       <c r="J1564" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="K1564" t="s">
         <v>10</v>
@@ -65041,13 +65041,13 @@
         <v>296</v>
       </c>
       <c r="H1565" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="I1565">
         <v>1</v>
       </c>
       <c r="J1565" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="K1565" t="s">
         <v>10</v>
@@ -65076,13 +65076,13 @@
         <v>296</v>
       </c>
       <c r="H1566" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="I1566">
         <v>2</v>
       </c>
       <c r="J1566" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="K1566" t="s">
         <v>10</v>
@@ -65111,13 +65111,13 @@
         <v>296</v>
       </c>
       <c r="H1567" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="I1567">
         <v>1</v>
       </c>
       <c r="J1567" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="K1567" t="s">
         <v>10</v>
@@ -65146,13 +65146,13 @@
         <v>296</v>
       </c>
       <c r="H1568" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="I1568">
         <v>2</v>
       </c>
       <c r="J1568" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="K1568" t="s">
         <v>10</v>
@@ -65286,13 +65286,13 @@
         <v>296</v>
       </c>
       <c r="H1572" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="I1572">
         <v>1</v>
       </c>
       <c r="J1572" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="K1572" t="s">
         <v>10</v>
@@ -65321,13 +65321,13 @@
         <v>296</v>
       </c>
       <c r="H1573" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="I1573">
         <v>2</v>
       </c>
       <c r="J1573" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="K1573" t="s">
         <v>10</v>
@@ -65671,13 +65671,13 @@
         <v>296</v>
       </c>
       <c r="H1583" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="I1583">
         <v>1</v>
       </c>
       <c r="J1583" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="K1583" t="s">
         <v>10</v>
@@ -65706,13 +65706,13 @@
         <v>296</v>
       </c>
       <c r="H1584" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="I1584">
         <v>2</v>
       </c>
       <c r="J1584" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="K1584" t="s">
         <v>10</v>
@@ -65741,13 +65741,13 @@
         <v>296</v>
       </c>
       <c r="H1585" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="I1585">
         <v>3</v>
       </c>
       <c r="J1585" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="K1585" t="s">
         <v>10</v>
@@ -65916,13 +65916,13 @@
         <v>296</v>
       </c>
       <c r="H1590" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="I1590">
         <v>1</v>
       </c>
       <c r="J1590" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="K1590" t="s">
         <v>10</v>
@@ -65951,13 +65951,13 @@
         <v>296</v>
       </c>
       <c r="H1591" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="I1591">
         <v>2</v>
       </c>
       <c r="J1591" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="K1591" t="s">
         <v>10</v>
@@ -65986,13 +65986,13 @@
         <v>296</v>
       </c>
       <c r="H1592" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="I1592">
         <v>1</v>
       </c>
       <c r="J1592" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="K1592" t="s">
         <v>10</v>
@@ -66021,13 +66021,13 @@
         <v>296</v>
       </c>
       <c r="H1593" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="I1593">
         <v>2</v>
       </c>
       <c r="J1593" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="K1593" t="s">
         <v>10</v>
@@ -66126,13 +66126,13 @@
         <v>296</v>
       </c>
       <c r="H1596" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="I1596">
         <v>1</v>
       </c>
       <c r="J1596" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="K1596" t="s">
         <v>10</v>
@@ -66161,13 +66161,13 @@
         <v>296</v>
       </c>
       <c r="H1597" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="I1597">
         <v>2</v>
       </c>
       <c r="J1597" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="K1597" t="s">
         <v>10</v>
@@ -66196,13 +66196,13 @@
         <v>296</v>
       </c>
       <c r="H1598" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="I1598">
         <v>1</v>
       </c>
       <c r="J1598" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="K1598" t="s">
         <v>10</v>
@@ -66231,13 +66231,13 @@
         <v>296</v>
       </c>
       <c r="H1599" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="I1599">
         <v>2</v>
       </c>
       <c r="J1599" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="K1599" t="s">
         <v>10</v>
@@ -66931,13 +66931,13 @@
         <v>78</v>
       </c>
       <c r="H1619" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="I1619">
         <v>1</v>
       </c>
       <c r="J1619" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="K1619" t="s">
         <v>10</v>
@@ -66966,13 +66966,13 @@
         <v>78</v>
       </c>
       <c r="H1620" t="s">
+        <v>3107</v>
+      </c>
+      <c r="I1620">
+        <v>2</v>
+      </c>
+      <c r="J1620" t="s">
         <v>3109</v>
-      </c>
-      <c r="I1620">
-        <v>2</v>
-      </c>
-      <c r="J1620" t="s">
-        <v>3111</v>
       </c>
       <c r="K1620" t="s">
         <v>10</v>
@@ -67876,13 +67876,13 @@
         <v>78</v>
       </c>
       <c r="H1646" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="I1646">
         <v>1</v>
       </c>
       <c r="J1646" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="K1646" t="s">
         <v>10</v>
@@ -67911,13 +67911,13 @@
         <v>78</v>
       </c>
       <c r="H1647" t="s">
+        <v>3110</v>
+      </c>
+      <c r="I1647">
+        <v>2</v>
+      </c>
+      <c r="J1647" t="s">
         <v>3112</v>
-      </c>
-      <c r="I1647">
-        <v>2</v>
-      </c>
-      <c r="J1647" t="s">
-        <v>3114</v>
       </c>
       <c r="K1647" t="s">
         <v>10</v>
@@ -68156,13 +68156,13 @@
         <v>78</v>
       </c>
       <c r="H1654" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="I1654">
         <v>1</v>
       </c>
       <c r="J1654" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="K1654" t="s">
         <v>10</v>
@@ -68191,13 +68191,13 @@
         <v>78</v>
       </c>
       <c r="H1655" t="s">
+        <v>3113</v>
+      </c>
+      <c r="I1655">
+        <v>2</v>
+      </c>
+      <c r="J1655" t="s">
         <v>3115</v>
-      </c>
-      <c r="I1655">
-        <v>2</v>
-      </c>
-      <c r="J1655" t="s">
-        <v>3117</v>
       </c>
       <c r="K1655" t="s">
         <v>10</v>
